--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Server" sheetId="4" r:id="rId1"/>
-    <sheet name="User" sheetId="5" r:id="rId2"/>
-    <sheet name="temp" sheetId="6" r:id="rId3"/>
+    <sheet name="Предусловия" sheetId="7" r:id="rId1"/>
+    <sheet name="Server" sheetId="4" r:id="rId2"/>
+    <sheet name="User" sheetId="5" r:id="rId3"/>
+    <sheet name="temp" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -55,9 +56,6 @@
     <t>chausova</t>
   </si>
   <si>
-    <t>ИКТ</t>
-  </si>
-  <si>
     <t>Автотестер</t>
   </si>
   <si>
@@ -112,14 +110,23 @@
     <t>@gmail.com</t>
   </si>
   <si>
-    <t>autoui14</t>
+    <t>http://10.100.70.21/edo</t>
+  </si>
+  <si>
+    <t>Роль</t>
+  </si>
+  <si>
+    <t>Исполнитель заказчика 44-ФЗ</t>
+  </si>
+  <si>
+    <t>autoui80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +171,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,6 +235,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -500,10 +518,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,143 +548,156 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="41.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2901063401</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>C2</f>
+        <v>autoui80</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(temp!A1,C2,temp!B1)</f>
+        <v>test.cognitive+autoui80@gmail.com</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f>B2</f>
-        <v>autoui14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE(temp!A1,B2,temp!B1)</f>
-        <v>test.cognitive+autoui14@gmail.com</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -659,12 +707,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +723,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -119,14 +119,73 @@
     <t>Исполнитель заказчика 44-ФЗ</t>
   </si>
   <si>
-    <t>autoui80</t>
+    <t>На вкладке "Server" указать адрес тестового сервера</t>
+  </si>
+  <si>
+    <t>На вкладке "User" указать уникальный login</t>
+  </si>
+  <si>
+    <t>На вкладке "User" указать наименование или ИНН организации: в организации нет ПЗ, организация работает по 44ФЗ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Настроен SMTP в web.config 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;setting name="SmtpHost" serializeAs="String"&gt;
+&lt;value&gt;smtp.mail.ru&lt;/value&gt;
+&lt;/setting&gt;
+&lt;setting name="SmtpPort" serializeAs="String"&gt;
+&lt;value&gt;25&lt;/value&gt;
+&lt;/setting&gt;
+&lt;setting name="SmtpUser" serializeAs="String"&gt;
+&lt;value&gt;test.testrail&lt;/value&gt;
+&lt;/setting&gt;
+&lt;setting name="SmtpPassword" serializeAs="String"&gt;
+&lt;value&gt;artbkkthbcn1&lt;/value&gt;
+&lt;/setting&gt;
+&lt;setting name="SmtpUseSsl" serializeAs="String"&gt;
+&lt;value&gt;True&lt;/value&gt;
+&lt;/setting&gt;
+&lt;setting name="SmtpDomain" serializeAs="String"&gt;
+&lt;value&gt;none&lt;/value&gt;
+&lt;/setting&gt;
+&lt;setting name="SmtpFrom" serializeAs="String"&gt;
+&lt;value&gt;test.testrail@mail.ru&lt;/value&gt;
+&lt;/setting&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>В DocumentActions.xml в секторе &lt;Location name="DocumentView"&gt; раскомментировать кнопку Button name="Эмуляция отправки в ЕИС"</t>
+  </si>
+  <si>
+    <t>http://192.168.20.68/edo</t>
+  </si>
+  <si>
+    <t>"Настройки ЭЦП Browser Plug-in" добавить адрес тестового сервера в доверенную зону на клиентском ПК</t>
+  </si>
+  <si>
+    <t>Способ авторизации в задании Автоэкспорта "ЕИС44" по "Логин и пароль"</t>
+  </si>
+  <si>
+    <t>autoui8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,15 +230,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -236,7 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -518,27 +567,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="162.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,8 +639,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -569,6 +656,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -577,9 +669,10 @@
     <hyperlink ref="A5" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -588,7 +681,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,17 +743,17 @@
         <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="7">
-        <v>2901063401</v>
+        <v>2917126128</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>C2</f>
-        <v>autoui80</v>
+        <v>autoui8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
@@ -673,7 +766,7 @@
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(temp!A1,C2,temp!B1)</f>
-        <v>test.cognitive+autoui80@gmail.com</v>
+        <v>test.cognitive+autoui8@gmail.com</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>10</v>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Предусловия" sheetId="7" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Gfhjkm1</t>
   </si>
   <si>
-    <t>http://10.100.70.20/edo</t>
-  </si>
-  <si>
     <t>Должность</t>
   </si>
   <si>
@@ -98,19 +95,10 @@
     <t>Регистрация нового пользователя</t>
   </si>
   <si>
-    <t>http://10.100.70.19/edo</t>
-  </si>
-  <si>
-    <t>http://10.100.70.17/edo</t>
-  </si>
-  <si>
     <t>test.cognitive+</t>
   </si>
   <si>
     <t>@gmail.com</t>
-  </si>
-  <si>
-    <t>http://10.100.70.21/edo</t>
   </si>
   <si>
     <t>Роль</t>
@@ -178,7 +166,7 @@
     <t>Способ авторизации в задании Автоэкспорта "ЕИС44" по "Логин и пароль"</t>
   </si>
   <si>
-    <t>autoui8</t>
+    <t>autoui203</t>
   </si>
 </sst>
 </file>
@@ -581,37 +569,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="330" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -622,9 +610,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -635,44 +623,29 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -680,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -702,82 +675,82 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7">
-        <v>2917126128</v>
+        <v>2902040654</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>C2</f>
-        <v>autoui8</v>
+        <v>autoui203</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(temp!A1,C2,temp!B1)</f>
-        <v>test.cognitive+autoui8@gmail.com</v>
+        <v>test.cognitive+autoui203@gmail.com</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -785,10 +758,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -816,10 +789,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Предусловия" sheetId="7" r:id="rId1"/>
     <sheet name="Server" sheetId="4" r:id="rId2"/>
-    <sheet name="User" sheetId="5" r:id="rId3"/>
+    <sheet name="User" sheetId="8" r:id="rId3"/>
     <sheet name="temp" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Пароль</t>
   </si>
   <si>
-    <t>chausova</t>
-  </si>
-  <si>
     <t>Автотестер</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>Заказчик</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
   </si>
   <si>
     <t>test.cognitive+</t>
-  </si>
-  <si>
-    <t>@gmail.com</t>
   </si>
   <si>
     <t>Роль</t>
@@ -157,16 +148,19 @@
     <t>В DocumentActions.xml в секторе &lt;Location name="DocumentView"&gt; раскомментировать кнопку Button name="Эмуляция отправки в ЕИС"</t>
   </si>
   <si>
-    <t>http://192.168.20.68/edo</t>
-  </si>
-  <si>
-    <t>"Настройки ЭЦП Browser Plug-in" добавить адрес тестового сервера в доверенную зону на клиентском ПК</t>
-  </si>
-  <si>
     <t>Способ авторизации в задании Автоэкспорта "ЕИС44" по "Логин и пароль"</t>
   </si>
   <si>
-    <t>autoui203</t>
+    <t>http://192.168.20.156/edo</t>
+  </si>
+  <si>
+    <t>"Настройки ЭЦП Browser Plug-in" в Internet Explorer добавить адрес тестового сервера в доверенную зону на клиентском ПК</t>
+  </si>
+  <si>
+    <t>@yandex.ru</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -558,7 +552,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,37 +563,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="330" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -610,9 +604,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -623,22 +617,13 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -651,43 +636,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -702,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -710,66 +684,55 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="7">
-        <v>2902040654</v>
+        <v>2907007756</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>C2</f>
-        <v>autoui203</v>
+        <v>test4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(temp!A1,C2,temp!B1)</f>
-        <v>test.cognitive+autoui203@gmail.com</v>
+        <v>test.cognitive+test4@yandex.ru</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -778,7 +741,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +752,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -86,16 +86,7 @@
     <t>Администратор</t>
   </si>
   <si>
-    <t>Регистрация нового пользователя</t>
-  </si>
-  <si>
     <t>test.cognitive+</t>
-  </si>
-  <si>
-    <t>Роль</t>
-  </si>
-  <si>
-    <t>Исполнитель заказчика 44-ФЗ</t>
   </si>
   <si>
     <t>На вкладке "Server" указать адрес тестового сервера</t>
@@ -160,14 +151,38 @@
     <t>@yandex.ru</t>
   </si>
   <si>
-    <t>test4</t>
+    <t>Новый пользователь1 из ЭП "ИКТ"</t>
+  </si>
+  <si>
+    <t>Новый пользователь2 (подчиненный) из ЭП "ИКТ"</t>
+  </si>
+  <si>
+    <t>testEP</t>
+  </si>
+  <si>
+    <t>Новый пользователь1 (1й в руководители)</t>
+  </si>
+  <si>
+    <t>Новый пользователь3 (смена руководителя)</t>
+  </si>
+  <si>
+    <t>Новый пользователь2 (подчиненный)</t>
+  </si>
+  <si>
+    <t>Новый пользователь3 (смена руководителя) из ЭП "ИКТ"</t>
+  </si>
+  <si>
+    <t>Тестов</t>
+  </si>
+  <si>
+    <t>test11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,9 +219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -257,17 +278,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -552,7 +575,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,37 +586,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="330" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -615,14 +638,14 @@
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -636,103 +659,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19" style="7" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="23.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
-        <v>2907007756</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f>C2</f>
-        <v>test4</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="8">
+        <v>2901110845</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <f>B2</f>
+        <v>test11</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="str">
-        <f>CONCATENATE(temp!A1,C2,temp!B1)</f>
-        <v>test.cognitive+test4@yandex.ru</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="7" t="str">
+        <f>CONCATENATE(temp!A1,B2,temp!B1)</f>
+        <v>test.cognitive+test11@yandex.ru</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="9" t="str">
+        <f>CONCATENATE(B2,"_1")</f>
+        <v>test11_1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="str">
+        <f t="shared" ref="E3:E4" si="0">B3</f>
+        <v>test11_1</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f>CONCATENATE(temp!A1,B3,temp!B1)</f>
+        <v>test.cognitive+test11_1@yandex.ru</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="str">
+        <f>CONCATENATE(B2,"_2")</f>
+        <v>test11_2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>test11_2</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f>CONCATENATE(temp!A1,B4,temp!B1)</f>
+        <v>test.cognitive+test11_2@yandex.ru</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f>CONCATENATE(temp!A1,B6,temp!B1)</f>
+        <v>test.cognitive+testEP@yandex.ru</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>CONCATENATE(B6,"_1")</f>
+        <v>testEP_1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>CONCATENATE(temp!A1,B7,temp!B1)</f>
+        <v>test.cognitive+testEP_1@yandex.ru</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f>CONCATENATE(B6,"_2")</f>
+        <v>testEP_2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f>CONCATENATE(temp!A1,B8,temp!B1)</f>
+        <v>test.cognitive+testEP_2@yandex.ru</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -740,9 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -752,10 +860,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Предусловия" sheetId="7" r:id="rId1"/>
-    <sheet name="Server" sheetId="4" r:id="rId2"/>
-    <sheet name="User" sheetId="8" r:id="rId3"/>
-    <sheet name="temp" sheetId="6" r:id="rId4"/>
+    <sheet name="Global" sheetId="4" r:id="rId1"/>
+    <sheet name="Variables" sheetId="10" r:id="rId2"/>
+    <sheet name="Variables_User" sheetId="9" r:id="rId3"/>
+    <sheet name="Предусловия" sheetId="7" r:id="rId4"/>
+    <sheet name="temp" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -27,29 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>Gfhjkm1</t>
   </si>
   <si>
-    <t>Должность</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>Пароль</t>
-  </si>
-  <si>
     <t>Автотестер</t>
   </si>
   <si>
@@ -68,25 +51,10 @@
     <t>User</t>
   </si>
   <si>
-    <t>Логин</t>
-  </si>
-  <si>
-    <t>Тип пользователя</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
     <t>Администратор</t>
-  </si>
-  <si>
-    <t>test.cognitive+</t>
   </si>
   <si>
     <t>На вкладке "Server" указать адрес тестового сервера</t>
@@ -148,34 +116,196 @@
     <t>"Настройки ЭЦП Browser Plug-in" в Internet Explorer добавить адрес тестового сервера в доверенную зону на клиентском ПК</t>
   </si>
   <si>
-    <t>@yandex.ru</t>
-  </si>
-  <si>
-    <t>Новый пользователь1 из ЭП "ИКТ"</t>
-  </si>
-  <si>
-    <t>Новый пользователь2 (подчиненный) из ЭП "ИКТ"</t>
-  </si>
-  <si>
-    <t>testEP</t>
-  </si>
-  <si>
-    <t>Новый пользователь1 (1й в руководители)</t>
-  </si>
-  <si>
-    <t>Новый пользователь3 (смена руководителя)</t>
-  </si>
-  <si>
-    <t>Новый пользователь2 (подчиненный)</t>
-  </si>
-  <si>
-    <t>Новый пользователь3 (смена руководителя) из ЭП "ИКТ"</t>
-  </si>
-  <si>
     <t>Тестов</t>
   </si>
   <si>
-    <t>test11</t>
+    <t>test*_1</t>
+  </si>
+  <si>
+    <t>test*_2</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>test*EP</t>
+  </si>
+  <si>
+    <t>test*EP_1</t>
+  </si>
+  <si>
+    <t>test*EP_2</t>
+  </si>
+  <si>
+    <t>BudgetYear</t>
+  </si>
+  <si>
+    <t>SourceFinancing</t>
+  </si>
+  <si>
+    <t>Бюджетные средства</t>
+  </si>
+  <si>
+    <t>KBK</t>
+  </si>
+  <si>
+    <t>30301138930090059244</t>
+  </si>
+  <si>
+    <t>limitAmount</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>OKPD2</t>
+  </si>
+  <si>
+    <t>01.11.11.111</t>
+  </si>
+  <si>
+    <t>NameObjectPurchase</t>
+  </si>
+  <si>
+    <t>Пшеница</t>
+  </si>
+  <si>
+    <t>AmountFinance</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>Conformiti</t>
+  </si>
+  <si>
+    <t>ТЗ</t>
+  </si>
+  <si>
+    <t>settings1</t>
+  </si>
+  <si>
+    <t>MethodSuppler</t>
+  </si>
+  <si>
+    <t>Открытый конкурс</t>
+  </si>
+  <si>
+    <t>RationaleMethodSupplier</t>
+  </si>
+  <si>
+    <t>п. 1.1 ФЗ 44</t>
+  </si>
+  <si>
+    <t>RathionaleMethod</t>
+  </si>
+  <si>
+    <t>ТЗ п.1.</t>
+  </si>
+  <si>
+    <t>AmountPPG</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>г. Чебоксары, ул. Ярославская, 27</t>
+  </si>
+  <si>
+    <t>File1</t>
+  </si>
+  <si>
+    <t>\\Test Data\\file\\file2.txt</t>
+  </si>
+  <si>
+    <t>\\Test Data\\file\\file1.jpeg</t>
+  </si>
+  <si>
+    <t>File2</t>
+  </si>
+  <si>
+    <t>File3</t>
+  </si>
+  <si>
+    <t>\\Test Data\\file\\file3.rtf</t>
+  </si>
+  <si>
+    <t>Contractor1</t>
+  </si>
+  <si>
+    <t>Contractor2</t>
+  </si>
+  <si>
+    <t>Contractor3</t>
+  </si>
+  <si>
+    <t>НАО "ПИИ ГЕО" /  ЗАО «Проектно-изыскательский институт ГЕО»</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОИЗВОДСТВЕННО-КОММЕРЧЕСКАЯ ФИРМА "СОЛИД"</t>
+  </si>
+  <si>
+    <t>АРХАНГЕЛЬСКИЙ АРКТИЧЕСКИЙ КОМПЛЕКСНЫЙ АВАРИЙНО-СПАСАТЕЛЬНЫЙ ЦЕНТР МЧС РОССИИ (ФИЛИАЛ ФЕДЕРАЛЬНОГО ГОСУДАРСТВЕННОГО КАЗЕННОГО УЧРЕЖДЕНИЯ "СЕВЕРО-ЗАПАДНЫЙ РЕГИОНАЛЬНЫЙ ПОИСКОВО-СПАСАТЕЛЬНЫЙ ОТРЯД МЧС РОССИИ")</t>
+  </si>
+  <si>
+    <t>WorkGroup</t>
+  </si>
+  <si>
+    <t>LoginYandex</t>
+  </si>
+  <si>
+    <t>PasswordYandex</t>
+  </si>
+  <si>
+    <t>test.cognitive</t>
+  </si>
+  <si>
+    <t>cognitiv</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Patronymic</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Настройка/Параметр</t>
+  </si>
+  <si>
+    <t>Пользователь/Параметр</t>
+  </si>
+  <si>
+    <t>@cognitive.ru</t>
+  </si>
+  <si>
+    <t>a.pavlov+</t>
+  </si>
+  <si>
+    <t>test25</t>
   </si>
 </sst>
 </file>
@@ -228,6 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -242,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -250,46 +381,46 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,6 +703,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="4"/>
+    <col min="2" max="2" width="25.28515625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="24" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="22.140625" style="4"/>
+    <col min="6" max="6" width="14.5703125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="22.140625" style="4"/>
+    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="4"/>
+    <col min="11" max="11" width="25.5703125" style="4" customWidth="1"/>
+    <col min="12" max="19" width="22.140625" style="4"/>
+    <col min="20" max="20" width="53.85546875" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="22.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="17.28515625" style="7"/>
+    <col min="9" max="9" width="39" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="7"/>
+    <col min="11" max="11" width="13.5703125" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="17.28515625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2911003592</v>
+      </c>
+      <c r="E2" s="11" t="str">
+        <f>B2</f>
+        <v>test25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="str">
+        <f>CONCATENATE(temp!A1,B2,temp!B1)</f>
+        <v>a.pavlov+test25@cognitive.ru</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="str">
+        <f>CONCATENATE(B2,"_1")</f>
+        <v>test25_1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11" t="str">
+        <f>B3</f>
+        <v>test25_1</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <f>CONCATENATE(temp!A1,B3,temp!B1)</f>
+        <v>a.pavlov+test25_1@cognitive.ru</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11" t="str">
+        <f>CONCATENATE(B2,"_2")</f>
+        <v>test25_2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="str">
+        <f>B4</f>
+        <v>test25_2</v>
+      </c>
+      <c r="I4" s="11" t="str">
+        <f>CONCATENATE(temp!A1,B4,temp!B1)</f>
+        <v>a.pavlov+test25_2@cognitive.ru</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f>CONCATENATE(B2,"EP")</f>
+        <v>test25EP</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f>CONCATENATE(temp!A1,B6,temp!B1)</f>
+        <v>a.pavlov+test25EP@cognitive.ru</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f>CONCATENATE(B6,"_1")</f>
+        <v>test25EP_1</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f>CONCATENATE(temp!A1,B7,temp!B1)</f>
+        <v>a.pavlov+test25EP_1@cognitive.ru</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f>CONCATENATE(B6,"_2")</f>
+        <v>test25EP_2</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f>CONCATENATE(temp!A1,B8,temp!B1)</f>
+        <v>a.pavlov+test25EP_2@cognitive.ru</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -586,37 +1130,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -625,232 +1169,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="23.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2901110845</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <f>B2</f>
-        <v>test11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7" t="str">
-        <f>CONCATENATE(temp!A1,B2,temp!B1)</f>
-        <v>test.cognitive+test11@yandex.ru</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="9" t="str">
-        <f>CONCATENATE(B2,"_1")</f>
-        <v>test11_1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E4" si="0">B3</f>
-        <v>test11_1</v>
-      </c>
-      <c r="I3" s="7" t="str">
-        <f>CONCATENATE(temp!A1,B3,temp!B1)</f>
-        <v>test.cognitive+test11_1@yandex.ru</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="9" t="str">
-        <f>CONCATENATE(B2,"_2")</f>
-        <v>test11_2</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>test11_2</v>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f>CONCATENATE(temp!A1,B4,temp!B1)</f>
-        <v>test.cognitive+test11_2@yandex.ru</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f>CONCATENATE(temp!A1,B6,temp!B1)</f>
-        <v>test.cognitive+testEP@yandex.ru</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f>CONCATENATE(B6,"_1")</f>
-        <v>testEP_1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f>CONCATENATE(temp!A1,B7,temp!B1)</f>
-        <v>test.cognitive+testEP_1@yandex.ru</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f>CONCATENATE(B6,"_2")</f>
-        <v>testEP_2</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="7" t="str">
-        <f>CONCATENATE(temp!A1,B8,temp!B1)</f>
-        <v>test.cognitive+testEP_2@yandex.ru</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -860,10 +1185,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -302,10 +302,10 @@
     <t>@cognitive.ru</t>
   </si>
   <si>
-    <t>a.pavlov+</t>
-  </si>
-  <si>
     <t>test25</t>
+  </si>
+  <si>
+    <t>test.cognitive+</t>
   </si>
 </sst>
 </file>
@@ -758,8 +758,8 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,9 +915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="I2" s="11" t="str">
         <f>CONCATENATE(temp!A1,B2,temp!B1)</f>
-        <v>a.pavlov+test25@cognitive.ru</v>
+        <v>test.cognitive+test25@cognitive.ru</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>2</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="I3" s="11" t="str">
         <f>CONCATENATE(temp!A1,B3,temp!B1)</f>
-        <v>a.pavlov+test25_1@cognitive.ru</v>
+        <v>test.cognitive+test25_1@cognitive.ru</v>
       </c>
       <c r="K3" s="7">
         <v>2</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="I4" s="11" t="str">
         <f>CONCATENATE(temp!A1,B4,temp!B1)</f>
-        <v>a.pavlov+test25_2@cognitive.ru</v>
+        <v>test.cognitive+test25_2@cognitive.ru</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="I6" s="11" t="str">
         <f>CONCATENATE(temp!A1,B6,temp!B1)</f>
-        <v>a.pavlov+test25EP@cognitive.ru</v>
+        <v>test.cognitive+test25EP@cognitive.ru</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="I7" s="11" t="str">
         <f>CONCATENATE(temp!A1,B7,temp!B1)</f>
-        <v>a.pavlov+test25EP_1@cognitive.ru</v>
+        <v>test.cognitive+test25EP_1@cognitive.ru</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="I8" s="11" t="str">
         <f>CONCATENATE(temp!A1,B8,temp!B1)</f>
-        <v>a.pavlov+test25EP_2@cognitive.ru</v>
+        <v>test.cognitive+test25EP_2@cognitive.ru</v>
       </c>
     </row>
   </sheetData>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1185,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>78</v>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>test.cognitive+</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Уведомление о васстановлении пароля в Е1 Закупки</t>
   </si>
 </sst>
 </file>
@@ -755,11 +761,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +783,7 @@
     <col min="21" max="16384" width="22.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -838,8 +844,11 @@
       <c r="T1" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -900,8 +909,11 @@
       <c r="T2" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1173,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -116,9 +116,6 @@
     <t>"Настройки ЭЦП Browser Plug-in" в Internet Explorer добавить адрес тестового сервера в доверенную зону на клиентском ПК</t>
   </si>
   <si>
-    <t>Тестов</t>
-  </si>
-  <si>
     <t>test*_1</t>
   </si>
   <si>
@@ -312,6 +309,42 @@
   </si>
   <si>
     <t>Уведомление о васстановлении пароля в Е1 Закупки</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Иванов Иван Иванович')]/../*[@type='radio']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Управление ИКТ АО')]/../*[@type='radio']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Петров Петр Петрович')]/../*[@type='radio']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Николаев Николай Николаевич')]/../*[@type='radio']</t>
+  </si>
+  <si>
+    <t>EP-xpath</t>
+  </si>
+  <si>
+    <t>ИвановtestEP1</t>
+  </si>
+  <si>
+    <t>ПетровtestEP2</t>
+  </si>
+  <si>
+    <t>Николаев</t>
+  </si>
+  <si>
+    <t>web.config: 
+setting name="SelfRegistrationEnabled" serializeAs="String"&gt;
+        &lt;value&gt;True&lt;/value&gt;
+      &lt;/setting&gt;
+&lt;setting name="SelfRegistrationCaptchaEnabled" serializeAs="String"&gt;
+        &lt;value&gt;False&lt;/value&gt;
+&lt;/setting&gt;
+&lt;add key="CustomAuthenticationEnabled" value="true" /&gt;
+&lt;add key="EdsAuthenticationEnabled" value="true" /&gt;
+&lt;add key="EdsAuthenticationByCertificateThumbprint" value="true" /&gt;</t>
   </si>
 </sst>
 </file>
@@ -724,30 +757,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
     </sheetView>
@@ -785,137 +818,137 @@
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="R1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4">
         <v>2018</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -925,11 +958,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,50 +971,54 @@
     <col min="9" max="9" width="39" style="7" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="7"/>
     <col min="11" max="11" width="13.5703125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="17.28515625" style="7"/>
+    <col min="12" max="12" width="36.5703125" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="17.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -1012,10 +1049,13 @@
       <c r="K2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>CONCATENATE(B2,"_1")</f>
@@ -1035,9 +1075,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>CONCATENATE(B2,"_2")</f>
@@ -1054,7 +1094,7 @@
         <v>test.cognitive+test25_2@cognitive.ru</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1066,9 +1106,9 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="11" t="str">
         <f>CONCATENATE(B2,"EP")</f>
@@ -1076,16 +1116,19 @@
       </c>
       <c r="C6" s="11"/>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I6" s="11" t="str">
         <f>CONCATENATE(temp!A1,B6,temp!B1)</f>
         <v>test.cognitive+test25EP@cognitive.ru</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>CONCATENATE(B6,"_1")</f>
@@ -1093,7 +1136,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I7" s="11" t="str">
         <f>CONCATENATE(temp!A1,B7,temp!B1)</f>
@@ -1102,10 +1145,13 @@
       <c r="K7" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>CONCATENATE(B6,"_2")</f>
@@ -1113,11 +1159,14 @@
       </c>
       <c r="C8" s="11"/>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I8" s="11" t="str">
         <f>CONCATENATE(temp!A1,B8,temp!B1)</f>
         <v>test.cognitive+test25EP_2@cognitive.ru</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1128,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,13 +1214,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1197,10 +1251,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -345,6 +345,30 @@
 &lt;add key="CustomAuthenticationEnabled" value="true" /&gt;
 &lt;add key="EdsAuthenticationEnabled" value="true" /&gt;
 &lt;add key="EdsAuthenticationByCertificateThumbprint" value="true" /&gt;</t>
+  </si>
+  <si>
+    <t>НиколаевtestEP1</t>
+  </si>
+  <si>
+    <t>test.cognitive@cognitive.ru</t>
+  </si>
+  <si>
+    <t>НиколайtestEP1</t>
+  </si>
+  <si>
+    <t>НиколаевичtestEP1</t>
+  </si>
+  <si>
+    <t>+ 7 - (8182) - 63571379</t>
+  </si>
+  <si>
+    <t>GRBS</t>
+  </si>
+  <si>
+    <t>МУ ДО "ДШИ № 11"</t>
+  </si>
+  <si>
+    <t>АДМИНИСТРАЦИЯ КАРГОПОЛЬСКОГО МУНИЦИПАЛЬНОГО РАЙОНА</t>
   </si>
 </sst>
 </file>
@@ -425,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -460,6 +484,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -797,8 +827,8 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,24 +988,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="17.28515625" style="7"/>
-    <col min="9" max="9" width="39" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="7"/>
-    <col min="11" max="11" width="13.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="17.28515625" style="7"/>
+    <col min="1" max="3" width="17.28515625" style="7"/>
+    <col min="4" max="4" width="33" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39" style="7" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" style="7"/>
+    <col min="8" max="8" width="20.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="7"/>
+    <col min="10" max="10" width="39" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="7"/>
+    <col min="12" max="12" width="13.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="17.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>76</v>
       </c>
@@ -989,31 +1024,34 @@
         <v>68</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1023,37 +1061,40 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10">
-        <v>2911003592</v>
-      </c>
-      <c r="E2" s="11" t="str">
+      <c r="D2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="11" t="str">
         <f>B2</f>
         <v>test25</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="str">
+      <c r="J2" s="11" t="str">
         <f>CONCATENATE(temp!A1,B2,temp!B1)</f>
         <v>test.cognitive+test25@cognitive.ru</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1063,19 +1104,20 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="str">
         <f>B3</f>
         <v>test25_1</v>
       </c>
-      <c r="I3" s="11" t="str">
+      <c r="J3" s="11" t="str">
         <f>CONCATENATE(temp!A1,B3,temp!B1)</f>
         <v>test.cognitive+test25_1@cognitive.ru</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1085,16 +1127,17 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="str">
         <f>B4</f>
         <v>test25_2</v>
       </c>
-      <c r="I4" s="11" t="str">
+      <c r="J4" s="11" t="str">
         <f>CONCATENATE(temp!A1,B4,temp!B1)</f>
         <v>test.cognitive+test25_2@cognitive.ru</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1104,9 +1147,9 @@
       <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1115,18 +1158,18 @@
         <v>test25EP</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="J6" s="11" t="str">
         <f>CONCATENATE(temp!A1,B6,temp!B1)</f>
         <v>test.cognitive+test25EP@cognitive.ru</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1135,21 +1178,21 @@
         <v>test25EP_1</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="J7" s="11" t="str">
         <f>CONCATENATE(temp!A1,B7,temp!B1)</f>
         <v>test.cognitive+test25EP_1@cognitive.ru</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>2</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1158,20 +1201,40 @@
         <v>test25EP_2</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="J8" s="11" t="str">
         <f>CONCATENATE(temp!A1,B8,temp!B1)</f>
         <v>test.cognitive+test25EP_2@cognitive.ru</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Gfhjkm123</t>
-  </si>
-  <si>
-    <t>aaermolin</t>
   </si>
   <si>
     <t>Server</t>
@@ -299,9 +296,6 @@
     <t>@cognitive.ru</t>
   </si>
   <si>
-    <t>test25</t>
-  </si>
-  <si>
     <t>test.cognitive+</t>
   </si>
   <si>
@@ -347,28 +341,22 @@
 &lt;add key="EdsAuthenticationByCertificateThumbprint" value="true" /&gt;</t>
   </si>
   <si>
-    <t>НиколаевtestEP1</t>
-  </si>
-  <si>
-    <t>test.cognitive@cognitive.ru</t>
-  </si>
-  <si>
-    <t>НиколайtestEP1</t>
-  </si>
-  <si>
-    <t>НиколаевичtestEP1</t>
-  </si>
-  <si>
     <t>+ 7 - (8182) - 63571379</t>
   </si>
   <si>
     <t>GRBS</t>
   </si>
   <si>
-    <t>МУ ДО "ДШИ № 11"</t>
-  </si>
-  <si>
-    <t>АДМИНИСТРАЦИЯ КАРГОПОЛЬСКОГО МУНИЦИПАЛЬНОГО РАЙОНА</t>
+    <t>CHEBTST2\Администратор</t>
+  </si>
+  <si>
+    <t>default_44FZ</t>
+  </si>
+  <si>
+    <t>ООО "Ромашка"</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -787,30 +775,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -848,137 +836,137 @@
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="R1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4">
         <v>2018</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +980,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,137 +1000,135 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="11" t="str">
         <f>B2</f>
-        <v>test25</v>
+        <v>test1</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="11" t="str">
         <f>CONCATENATE(temp!A1,B2,temp!B1)</f>
-        <v>test.cognitive+test25@cognitive.ru</v>
+        <v>test.cognitive+test1@cognitive.ru</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>CONCATENATE(B2,"_1")</f>
-        <v>test25_1</v>
+        <v>test1_1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="11" t="str">
         <f>B3</f>
-        <v>test25_1</v>
+        <v>test1_1</v>
       </c>
       <c r="J3" s="11" t="str">
         <f>CONCATENATE(temp!A1,B3,temp!B1)</f>
-        <v>test.cognitive+test25_1@cognitive.ru</v>
+        <v>test.cognitive+test1_1@cognitive.ru</v>
       </c>
       <c r="L3" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>CONCATENATE(B2,"_2")</f>
-        <v>test25_2</v>
+        <v>test1_2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11" t="str">
         <f>B4</f>
-        <v>test25_2</v>
+        <v>test1_2</v>
       </c>
       <c r="J4" s="11" t="str">
         <f>CONCATENATE(temp!A1,B4,temp!B1)</f>
-        <v>test.cognitive+test25_2@cognitive.ru</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>test.cognitive+test1_2@cognitive.ru</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
@@ -1151,87 +1137,91 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="11" t="str">
         <f>CONCATENATE(B2,"EP")</f>
-        <v>test25EP</v>
+        <v>test1EP</v>
       </c>
       <c r="C6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6" s="11" t="str">
         <f>CONCATENATE(temp!A1,B6,temp!B1)</f>
-        <v>test.cognitive+test25EP@cognitive.ru</v>
+        <v>test.cognitive+test1EP@cognitive.ru</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>CONCATENATE(B6,"_1")</f>
-        <v>test25EP_1</v>
+        <v>test1EP_1</v>
       </c>
       <c r="C7" s="11"/>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J7" s="11" t="str">
         <f>CONCATENATE(temp!A1,B7,temp!B1)</f>
-        <v>test.cognitive+test25EP_1@cognitive.ru</v>
+        <v>test.cognitive+test1EP_1@cognitive.ru</v>
       </c>
       <c r="L7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>CONCATENATE(B6,"_2")</f>
-        <v>test25EP_2</v>
+        <v>test1EP_2</v>
       </c>
       <c r="C8" s="11"/>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J8" s="11" t="str">
         <f>CONCATENATE(temp!A1,B8,temp!B1)</f>
-        <v>test.cognitive+test25EP_2@cognitive.ru</v>
+        <v>test.cognitive+test1EP_2@cognitive.ru</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="F9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>92</v>
+      <c r="F9" s="11" t="str">
+        <f>CONCATENATE(F3,"_change")</f>
+        <v>test1_1_change</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f>CONCATENATE(G2,"_change")</f>
+        <v>User_change</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f>CONCATENATE(H2,"_change")</f>
+        <v>Interface_change</v>
+      </c>
+      <c r="J9" s="13" t="str">
+        <f>CONCATENATE(temp!A1,"change",temp!B1)</f>
+        <v>test.cognitive+change@cognitive.ru</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId1" display="test.cognitive@cognitive.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1254,42 +1244,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="330" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1314,10 +1304,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Test data.xlsx
+++ b/Test Data/Test data.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
     <sheet name="Variables" sheetId="10" r:id="rId2"/>
     <sheet name="Variables_User" sheetId="9" r:id="rId3"/>
-    <sheet name="Предусловия" sheetId="7" r:id="rId4"/>
-    <sheet name="temp" sheetId="6" r:id="rId5"/>
+    <sheet name="Menu" sheetId="12" r:id="rId4"/>
+    <sheet name="Предусловия" sheetId="7" r:id="rId5"/>
+    <sheet name="temp" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>Gfhjkm1</t>
   </si>
@@ -356,7 +357,79 @@
     <t>ООО "Ромашка"</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>Осуществление закупок</t>
+  </si>
+  <si>
+    <t>Заявки на размещение закупки</t>
+  </si>
+  <si>
+    <t>Мои задачи</t>
+  </si>
+  <si>
+    <t>Планирование</t>
+  </si>
+  <si>
+    <t>На исполнении</t>
+  </si>
+  <si>
+    <t>На контроле</t>
+  </si>
+  <si>
+    <t>Позиции плана закупок</t>
+  </si>
+  <si>
+    <t>Планы закупок</t>
+  </si>
+  <si>
+    <t>Положение о закупках</t>
+  </si>
+  <si>
+    <t>Перечни ТРУ</t>
+  </si>
+  <si>
+    <t>Извещения о закупочной процедуре</t>
+  </si>
+  <si>
+    <t>Протоколы</t>
+  </si>
+  <si>
+    <t>Заявки участников</t>
+  </si>
+  <si>
+    <t>Черновики</t>
+  </si>
+  <si>
+    <t>Внесение изменений</t>
+  </si>
+  <si>
+    <t>Все</t>
+  </si>
+  <si>
+    <t>Актуальные</t>
+  </si>
+  <si>
+    <t>Проекты</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>Контракты/ Договоры</t>
+  </si>
+  <si>
+    <t>Договоры</t>
+  </si>
+  <si>
+    <t>Заключение договора</t>
   </si>
 </sst>
 </file>
@@ -437,12 +510,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -477,6 +549,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -768,36 +846,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="4"/>
-    <col min="2" max="2" width="25.28515625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="24" style="4"/>
+    <col min="1" max="1" width="24" style="3"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="24" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -821,151 +899,151 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="22.140625" style="4"/>
-    <col min="6" max="6" width="14.5703125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="22.140625" style="4"/>
-    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="4"/>
-    <col min="11" max="11" width="25.5703125" style="4" customWidth="1"/>
-    <col min="12" max="19" width="22.140625" style="4"/>
-    <col min="20" max="20" width="53.85546875" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="22.140625" style="4"/>
+    <col min="1" max="1" width="25.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="22.140625" style="3"/>
+    <col min="6" max="6" width="14.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="22.140625" style="3"/>
+    <col min="9" max="9" width="12.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="3"/>
+    <col min="11" max="11" width="25.5703125" style="3" customWidth="1"/>
+    <col min="12" max="19" width="22.140625" style="3"/>
+    <col min="20" max="20" width="53.85546875" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="22.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2018</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -978,244 +1056,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.28515625" style="7"/>
-    <col min="4" max="4" width="33" style="7" customWidth="1"/>
-    <col min="5" max="5" width="39" style="7" customWidth="1"/>
-    <col min="6" max="7" width="17.28515625" style="7"/>
-    <col min="8" max="8" width="20.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="7"/>
-    <col min="10" max="10" width="39" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="7"/>
-    <col min="12" max="12" width="13.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="36.5703125" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="17.28515625" style="7"/>
+    <col min="1" max="3" width="17.28515625" style="6"/>
+    <col min="4" max="4" width="33" style="6" customWidth="1"/>
+    <col min="5" max="5" width="39" style="6" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" style="6"/>
+    <col min="8" max="8" width="20.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="6"/>
+    <col min="10" max="10" width="39" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="6"/>
+    <col min="12" max="12" width="13.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="17.28515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="str">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="str">
         <f>B2</f>
-        <v>test1</v>
-      </c>
-      <c r="G2" s="9" t="s">
+        <v>test2</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="str">
+      <c r="J2" s="10" t="str">
         <f>CONCATENATE(temp!A1,B2,temp!B1)</f>
-        <v>test.cognitive+test1@cognitive.ru</v>
-      </c>
-      <c r="K2" s="9" t="s">
+        <v>test.cognitive+test2@cognitive.ru</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>3</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <f>CONCATENATE(B2,"_1")</f>
-        <v>test1_1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="str">
+        <v>test2_1</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="str">
         <f>B3</f>
-        <v>test1_1</v>
-      </c>
-      <c r="J3" s="11" t="str">
+        <v>test2_1</v>
+      </c>
+      <c r="J3" s="10" t="str">
         <f>CONCATENATE(temp!A1,B3,temp!B1)</f>
-        <v>test.cognitive+test1_1@cognitive.ru</v>
-      </c>
-      <c r="L3" s="7">
+        <v>test.cognitive+test2_1@cognitive.ru</v>
+      </c>
+      <c r="L3" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="10" t="str">
         <f>CONCATENATE(B2,"_2")</f>
-        <v>test1_2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="str">
+        <v>test2_2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="str">
         <f>B4</f>
-        <v>test1_2</v>
-      </c>
-      <c r="J4" s="11" t="str">
+        <v>test2_2</v>
+      </c>
+      <c r="J4" s="10" t="str">
         <f>CONCATENATE(temp!A1,B4,temp!B1)</f>
-        <v>test.cognitive+test1_2@cognitive.ru</v>
+        <v>test.cognitive+test2_2@cognitive.ru</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="10" t="str">
         <f>CONCATENATE(B2,"EP")</f>
-        <v>test1EP</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="F6" s="7" t="s">
+        <v>test2EP</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="F6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="J6" s="10" t="str">
         <f>CONCATENATE(temp!A1,B6,temp!B1)</f>
-        <v>test.cognitive+test1EP@cognitive.ru</v>
-      </c>
-      <c r="M6" s="7" t="s">
+        <v>test.cognitive+test2EP@cognitive.ru</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="10" t="str">
         <f>CONCATENATE(B6,"_1")</f>
-        <v>test1EP_1</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="F7" s="7" t="s">
+        <v>test2EP_1</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="F7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="10" t="str">
         <f>CONCATENATE(temp!A1,B7,temp!B1)</f>
-        <v>test.cognitive+test1EP_1@cognitive.ru</v>
-      </c>
-      <c r="L7" s="7">
+        <v>test.cognitive+test2EP_1@cognitive.ru</v>
+      </c>
+      <c r="L7" s="6">
         <v>4</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="10" t="str">
         <f>CONCATENATE(B6,"_2")</f>
-        <v>test1EP_2</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="F8" s="7" t="s">
+        <v>test2EP_2</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="F8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J8" s="10" t="str">
         <f>CONCATENATE(temp!A1,B8,temp!B1)</f>
-        <v>test.cognitive+test1EP_2@cognitive.ru</v>
-      </c>
-      <c r="M8" s="7" t="s">
+        <v>test.cognitive+test2EP_2@cognitive.ru</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="10" t="str">
         <f>CONCATENATE(F3,"_change")</f>
-        <v>test1_1_change</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>test2_1_change</v>
+      </c>
+      <c r="G9" s="10" t="str">
         <f>CONCATENATE(G2,"_change")</f>
         <v>User_change</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="10" t="str">
         <f>CONCATENATE(H2,"_change")</f>
         <v>Interface_change</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="12" t="str">
         <f>CONCATENATE(temp!A1,"change",temp!B1)</f>
         <v>test.cognitive+change@cognitive.ru</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1229,6 +1307,121 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="23.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -1288,26 +1481,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C7" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="16384" width="24.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
